--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1093115.148050562</v>
+        <v>610215.4174258648</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>316.701293818843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>213.7404825732056</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>173.8683972746518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>133.122946118041</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>130.8951884589056</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.26583888007744</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>130.4588318996851</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>109.0522721046908</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>94.45289593214807</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.32913847936427</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>201.6473422926464</v>
+        <v>252.8505008312589</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>56.85123788495903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>52.54962383051859</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.4950386131015</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.5406516018299</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,16 +3715,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0.7644211441605784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>230.8689865858188</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E2" t="n">
-        <v>945.273062713798</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>841.2722432737603</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>423.3084351719472</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>552.5043404946649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>552.5043404946649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.5043404946649</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
         <v>1626.94664591678</v>
@@ -4556,37 +4556,37 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.41240417786</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.94664591678</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.9493689922781</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>701.5978338225178</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5978338225178</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.118241157407</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1881.118241157407</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157407</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157407</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.647186529604</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>603.305099472028</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>389.0166762901907</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>389.0166762901907</v>
+        <v>211.647186529604</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>211.647186529604</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.647186529604</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.647186529604</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.647186529604</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>1009.893253135416</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.161069819836</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
         <v>2122.782055165496</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5279,10 +5279,10 @@
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>674.4285624571609</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>674.4285624571609</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N15" t="n">
-        <v>1478.840140721311</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.685527502827</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1186.00103929694</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>896.5838692599799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>343.9822193667499</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>651.3023526467114</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N18" t="n">
-        <v>1455.713930910862</v>
+        <v>2305.425532778847</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.177692213521</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5704,10 +5704,10 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
@@ -5729,37 +5729,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N21" t="n">
-        <v>2029.138566119363</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O21" t="n">
-        <v>2029.138566119363</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1071.446671213422</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V22" t="n">
-        <v>816.762183007535</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6008,28 +6008,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,16 +6054,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6072,19 +6072,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1037.215732779479</v>
       </c>
       <c r="M24" t="n">
-        <v>1624.247116409446</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W25" t="n">
-        <v>986.8862794544777</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X25" t="n">
-        <v>986.8862794544777</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.0937003109476</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6233,16 +6233,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.870190757661</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N27" t="n">
-        <v>1823.732818421694</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2099.712682287189</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>724.8104737104562</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8973801280631</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>430.0074326301527</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>261.8321109499733</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1111.904502347275</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>1419.224635627236</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.087263291269</v>
+        <v>2127.539821221227</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.551024593929</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.665036439558</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="C31" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>328.4897147593787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X31" t="n">
-        <v>496.665036439558</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="Y31" t="n">
-        <v>496.665036439558</v>
+        <v>381.3857973138604</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>936.0352208116482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M33" t="n">
-        <v>1704.40336720411</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N33" t="n">
-        <v>2048.924022841727</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6883,19 +6883,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6917,25 +6917,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,25 +6947,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>635.6609815769497</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>942.9811148569113</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>1272.843742520944</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,10 +7120,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7135,10 +7135,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028583</v>
+        <v>618.3141514389024</v>
       </c>
       <c r="L39" t="n">
-        <v>381.3300194168668</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M39" t="n">
-        <v>1149.698165809328</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1524.052509796274</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="N42" t="n">
-        <v>2328.464088060424</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028583</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1659.000326757765</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.000326757765</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2591.885251391686</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028583</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028583</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>976.5866352201285</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028583</v>
+        <v>748.5970843221112</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028583</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
   </sheetData>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>28.89025344993428</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.2370647557203</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>192.6371838218687</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>14.99144489699324</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>258.3632915000363</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>207.7840137618125</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>230.3909625532151</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>175.218422579025</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>84.59001010593096</v>
+        <v>33.38685156731842</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>229.671760451632</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>96.36420453701754</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>65.75178248552633</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>30.37317676570622</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25603,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>285.7585771924304</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25834,7 +25834,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>55.65401175077224</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409902</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905759225</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905759236</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905759307</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905759103</v>
+        <v>787.7936905757958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732524</v>
+        <v>-93474.54782732506</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.331387219</v>
+        <v>496493.3313872195</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480203</v>
+        <v>66365.69842480135</v>
       </c>
       <c r="F6" t="n">
+        <v>591525.734901698</v>
+      </c>
+      <c r="G6" t="n">
         <v>591525.7349016978</v>
       </c>
-      <c r="G6" t="n">
-        <v>591525.7349016977</v>
-      </c>
       <c r="H6" t="n">
-        <v>591525.7349016978</v>
+        <v>591525.7349016981</v>
       </c>
       <c r="I6" t="n">
+        <v>591525.7349016981</v>
+      </c>
+      <c r="J6" t="n">
+        <v>415102.5157091048</v>
+      </c>
+      <c r="K6" t="n">
         <v>591525.734901698</v>
-      </c>
-      <c r="J6" t="n">
-        <v>415102.5157091049</v>
-      </c>
-      <c r="K6" t="n">
-        <v>591525.7349016977</v>
       </c>
       <c r="L6" t="n">
         <v>591525.734901698</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.719667861</v>
+        <v>456724.7196678608</v>
       </c>
       <c r="N6" t="n">
+        <v>591525.7349016978</v>
+      </c>
+      <c r="O6" t="n">
+        <v>591525.7349016978</v>
+      </c>
+      <c r="P6" t="n">
         <v>591525.7349016982</v>
-      </c>
-      <c r="O6" t="n">
-        <v>591525.734901698</v>
-      </c>
-      <c r="P6" t="n">
-        <v>591525.734901698</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>90.17475192286844</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>110.1822901911515</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27433,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>112.6546010619392</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>133.8487485255012</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>216.118022599372</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>48.93679172303175</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.856911074836855</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>224.2242097209978</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>260.6788285737782</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>11.11965843648068</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>52.21229604800976</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>106.5672573837439</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>7.172050210143709</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.3147979156456</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>291.4610367453475</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,16 +32242,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>191.6604114357506</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>20.85143255914349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565511</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32552,28 +32552,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0.5433631145229469</v>
       </c>
       <c r="P21" t="n">
-        <v>117.8606508360715</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,25 +32698,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>134.1657216706757</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>274.5684716790595</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>65.28968935110936</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>58.20747125267638</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33743,28 +33743,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,28 +34217,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>82.53814162109569</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,28 +34454,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>218.8490678448243</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>171.9901114440537</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>338.8532229073289</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>355.1727124703639</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>662.8858277436271</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>542.7271115776326</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>539.6610736959708</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>205.3397937847504</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.809437946808</v>
       </c>
       <c r="P21" t="n">
-        <v>302.3490120616784</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303321</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>366.4516871942607</v>
       </c>
       <c r="M24" t="n">
-        <v>339.3146305004005</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>622.6614418061865</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>459.0568329046665</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>441.894888777893</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>316.5557641833944</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>264.2491498530175</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>406.2081335128966</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>540.7269937411445</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>358.3594523497517</v>
       </c>
       <c r="L39" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,19 +37865,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>406.1091714490773</v>
+        <v>540.8153396036814</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>542.4200976728059</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>32.0083373580322</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581189.995851886</v>
+        <v>3656719.665516691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>610215.4174258648</v>
+        <v>558816.739577467</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>213.7404825732056</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>193.0419486155214</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.09294284862705</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>232.9076866847666</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>82.5995718321566</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.8951884589056</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.29997400339114</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>22.67137997671657</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>109.0522721046908</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>169.2784111612327</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>46.32913847936427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>277.0465866424806</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.433564730322223</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>54.68632445964282</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>252.8505008312589</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>131.2467198342729</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>81.16223995342422</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>52.54962383051859</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.4950386131015</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>140.108366728896</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>222.2884206086013</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>80.45677925364019</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>28.253339159173</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17.85007057364766</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>230.8689865858188</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>89.60846117204177</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.48636361053</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.523846670118</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D2" t="n">
-        <v>1252.258148063368</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1252.258148063368</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>841.2722432737603</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>423.3084351719472</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1686.126373869001</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>1686.126373869001</v>
       </c>
       <c r="Y2" t="n">
-        <v>2366.086203674652</v>
+        <v>1686.126373869001</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1169.575624029498</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>783.7873714312534</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2382.509002921313</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>119.9025515207595</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>119.9025515207595</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>841.766221650837</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>2355.789103656128</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.649771680316</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.647186529604</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>211.647186529604</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>211.647186529604</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>211.647186529604</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.647186529604</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.647186529604</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,22 +5041,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5123,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>1009.893253135416</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M12" t="n">
-        <v>1778.261399527878</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>2002.182261163389</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1341.044057544613</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1341.044057544613</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1341.044057544613</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.044057544613</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.054506646595</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.2619275030652</v>
+        <v>416.1184791449342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>877.4353633695372</v>
       </c>
       <c r="M15" t="n">
-        <v>1778.261399527878</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1990.324165399617</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2239.077579483579</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,22 +5597,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M18" t="n">
-        <v>1771.161069819836</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N18" t="n">
-        <v>2305.425532778847</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O18" t="n">
-        <v>2554.178946862809</v>
+        <v>1867.001711358812</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>510.2366179610311</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>510.2366179610311</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>360.1199785486954</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>510.2366179610311</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5747,19 +5749,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>618.8589595388348</v>
+        <v>894.5540770733946</v>
       </c>
       <c r="M21" t="n">
-        <v>1387.227105931296</v>
+        <v>1214.889396603096</v>
       </c>
       <c r="N21" t="n">
-        <v>2191.638684195447</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123425</v>
+        <v>3830.220235917889</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123425</v>
+        <v>3661.284052989982</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123425</v>
+        <v>3661.284052989982</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>3661.284052989982</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>3514.394105492072</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>1019.726309053207</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V22" t="n">
-        <v>765.0418208473204</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W22" t="n">
-        <v>475.6246508103599</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="X22" t="n">
-        <v>247.6350999123425</v>
+        <v>4232.661279891659</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.6350999123425</v>
+        <v>4011.868700748129</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1037.215732779479</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.551052309181</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>1142.558411070365</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>1142.558411070365</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,37 +6211,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>738.0704661731477</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M27" t="n">
-        <v>1506.438612565609</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N27" t="n">
-        <v>1850.959268203227</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.712682287189</v>
+        <v>2493.466724549913</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2493.466724549913</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.927113122792</v>
+        <v>627.6468934660858</v>
       </c>
       <c r="C28" t="n">
-        <v>874.927113122792</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>724.8104737104562</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>576.8973801280631</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>430.0074326301527</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>261.8321109499733</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>874.927113122792</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>874.927113122792</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X28" t="n">
-        <v>874.927113122792</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.927113122792</v>
+        <v>809.2953582963255</v>
       </c>
     </row>
     <row r="29">
@@ -6446,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>1086.151323163967</v>
       </c>
       <c r="M30" t="n">
-        <v>1323.128242957076</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="N30" t="n">
-        <v>2127.539821221227</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>199.7373324836207</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1046.397554278819</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>1046.397554278819</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488384</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="W31" t="n">
-        <v>609.3753482118777</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X31" t="n">
-        <v>381.3857973138604</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y31" t="n">
-        <v>381.3857973138604</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6697,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>388.8958536704856</v>
+        <v>741.6306675263494</v>
       </c>
       <c r="M33" t="n">
-        <v>1157.264000062947</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N33" t="n">
-        <v>1559.410052240715</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1050.597097156902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1050.597097156902</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1050.597097156902</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,7 +6970,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121729</v>
@@ -7017,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>635.6609815769497</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M36" t="n">
-        <v>942.9811148569113</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="N36" t="n">
-        <v>1272.843742520944</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>3971.313650668268</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>3802.377467740361</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>3971.313650668268</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>3971.313650668268</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>3971.313650668268</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2427.383125639849</v>
       </c>
       <c r="K39" t="n">
-        <v>618.3141514389024</v>
+        <v>2838.273394484362</v>
       </c>
       <c r="L39" t="n">
-        <v>1232.211221195791</v>
+        <v>3452.170464241251</v>
       </c>
       <c r="M39" t="n">
-        <v>1552.546540725493</v>
+        <v>3452.170464241251</v>
       </c>
       <c r="N39" t="n">
-        <v>1897.067196363111</v>
+        <v>3796.691119878868</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395587</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960286</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7433,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1016.756764650637</v>
       </c>
       <c r="M42" t="n">
-        <v>1823.732818421694</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="N42" t="n">
-        <v>1823.732818421694</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.9573788353335</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.9573788353335</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.9573788353335</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.9573788353335</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1133.156678913842</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>843.739508876881</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>615.7499579788637</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.9573788353335</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7636,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1204.259384505796</v>
       </c>
       <c r="N45" t="n">
-        <v>2107.322705390779</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O45" t="n">
-        <v>2386.862770609477</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2591.885251391686</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.8045051785811</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C46" t="n">
-        <v>358.8683222506741</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W46" t="n">
-        <v>976.5866352201285</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="X46" t="n">
-        <v>748.5970843221112</v>
+        <v>895.4886194174906</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.8045051785811</v>
+        <v>895.4886194174906</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>259.0301978983862</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>332.5263293315845</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>258.3632915000363</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>51.91301957176819</v>
       </c>
       <c r="K39" t="n">
-        <v>207.7840137618125</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>230.3909625532151</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>225.2198464918254</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10.55356902070463</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>175.218422579025</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.476411694110425</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>142.000397916247</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>111.8072440037348</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>33.38685156731842</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>120.8909234895551</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>86.08458114520361</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>96.36420453701754</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>65.75178248552633</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>81.43919432949326</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>63.948931789976</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>68.15869376457216</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>151.5786410227643</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>127.5709774492836</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>55.65401175077224</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>136.1011942169954</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905759204</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905759236</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>787.7936905759088</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905757958</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732506</v>
+        <v>-93474.54782732503</v>
       </c>
       <c r="C6" t="n">
+        <v>496493.3313872194</v>
+      </c>
+      <c r="D6" t="n">
         <v>496493.3313872195</v>
       </c>
-      <c r="D6" t="n">
-        <v>496493.3313872194</v>
-      </c>
       <c r="E6" t="n">
-        <v>66365.69842480135</v>
+        <v>66365.69842480143</v>
       </c>
       <c r="F6" t="n">
         <v>591525.734901698</v>
       </c>
       <c r="G6" t="n">
+        <v>591525.7349016975</v>
+      </c>
+      <c r="H6" t="n">
         <v>591525.7349016978</v>
       </c>
-      <c r="H6" t="n">
-        <v>591525.7349016981</v>
-      </c>
       <c r="I6" t="n">
-        <v>591525.7349016981</v>
+        <v>591525.7349016978</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091048</v>
+        <v>415102.5157091053</v>
       </c>
       <c r="K6" t="n">
-        <v>591525.734901698</v>
+        <v>591525.7349016983</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.734901698</v>
+        <v>591525.7349016976</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678608</v>
+        <v>456724.7196678609</v>
       </c>
       <c r="N6" t="n">
         <v>591525.7349016978</v>
@@ -26561,7 +26563,7 @@
         <v>591525.7349016978</v>
       </c>
       <c r="P6" t="n">
-        <v>591525.7349016982</v>
+        <v>591525.7349016977</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>110.1822901911515</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>156.1990201018916</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>133.7390373333103</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>173.9683590569448</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>133.8487485255012</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.93679172303175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>80.1210740195401</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>342.601511794291</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>260.6788285737782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>11.11965843648068</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31133,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31370,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133295</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31379,13 +31381,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31610,10 +31612,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31841,28 +31843,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>106.5672573837439</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>67.57414213714412</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>339.3147979156456</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,19 +32095,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>224.2638100172042</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,34 +32311,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>191.6604114357506</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565511</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>158.0642534345928</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5433631145229469</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32785,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>134.1657216706757</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>201.5176914958841</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33025,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
@@ -33038,16 +33040,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>274.5684716790595</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>50.58809112686431</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,25 +33262,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>351.5968252432523</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>65.28968935110936</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33499,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>58.20747125267638</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33518,16 +33520,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33736,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>327.3263154426292</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,16 +33970,16 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33989,22 +33991,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34207,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>113.5000972981085</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446455</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34444,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>171.9901114440537</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35489,28 +35491,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>338.8532229073289</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>318.8402169694292</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>662.8858277436271</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,10 +35743,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>90.28940260287399</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>539.6610736959708</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>466.123612829911</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>390.3502189581778</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.809437946808</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303321</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>366.4516871942607</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>525.0887213238657</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
@@ -36686,16 +36688,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>459.0568329046665</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>120.6836047766919</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>583.8827907668373</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>316.5557641833944</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>193.9719495517104</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>406.2081335128966</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37166,7 +37168,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>650.8973452706108</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>540.7269937411445</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>93.82319852667493</v>
       </c>
       <c r="K39" t="n">
-        <v>358.3594523497517</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
@@ -37637,10 +37639,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>345.7860628216935</v>
       </c>
       <c r="M42" t="n">
-        <v>540.8153396036814</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>83.08581256980706</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.0083373580322</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656719.665516691</v>
+        <v>3649702.65062498</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558816.739577467</v>
+        <v>600906.9956708103</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>138.3295234829028</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>193.0419486155214</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.09294284862705</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.9076866847666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>322.6159522267454</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>65.29997400339114</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>22.67137997671657</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.2784111612327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>159.2465967971092</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>277.0465866424806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274067</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.433564730322223</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>54.68632445964282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>131.2467198342729</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385012</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>81.16223995342422</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>76.2797837049395</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.108366728896</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>222.2884206086013</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.45677925364019</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.253339159173</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670917</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="F43" t="n">
-        <v>17.85007057364766</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>89.60846117204177</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>207.5931772786451</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>193.669773217236</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>193.669773217236</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.126373869001</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.126373869001</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.126373869001</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.0479818810668</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1527.841322636248</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.841322636248</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.575624029498</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="E5" t="n">
-        <v>783.7873714312534</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>547.2070611056187</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>533.2836570442096</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,16 +4652,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2627.754532504893</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>270.0191909330953</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>119.9025515207595</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>119.9025515207595</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.766221650837</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.50539369077</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1228.366061714959</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,19 +5035,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.770682899239</v>
+        <v>1567.123890985307</v>
       </c>
       <c r="N12" t="n">
-        <v>2002.182261163389</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O12" t="n">
-        <v>2317.834075963124</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429516</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429516</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="X13" t="n">
-        <v>416.1184791449342</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1184791449342</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126483</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>877.4353633695372</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1645.803509761999</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>1990.324165399617</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O15" t="n">
-        <v>2239.077579483579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>675.2581065529675</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126482</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>493.5013994809973</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>813.8367190106992</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1618.24829727485</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1867.001711358812</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.2366179610311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>510.2366179610311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>360.1199785486954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045613</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.2366179610311</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>894.5540770733946</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.889396603096</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3830.220235917889</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3661.284052989982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3661.284052989982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3661.284052989982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3514.394105492072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4460.650830789676</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4460.650830789676</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4232.661279891659</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4011.868700748129</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,49 +5992,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>693.7762810288177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C25" t="n">
-        <v>524.8400981009108</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8400981009108</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1142.558411070365</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>1142.558411070365</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>914.5688601723479</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>693.7762810288177</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1824.002963247254</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2493.466724549913</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2493.466724549913</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>627.6468934660858</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>809.2953582963255</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X28" t="n">
-        <v>809.2953582963255</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.2953582963255</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1086.151323163967</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1854.519469556429</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.519469556429</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749151</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749151</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1046.397554278819</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1046.397554278819</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>791.7130660729324</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>791.7130660729324</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>563.7235151749151</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7235151749151</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,10 +6685,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,52 +6697,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>741.6306675263494</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1509.998813918811</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1854.519469556429</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.597097156902</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V34" t="n">
-        <v>1050.597097156902</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W34" t="n">
-        <v>1050.597097156902</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X34" t="n">
-        <v>822.6075462588844</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.6075462588844</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,43 +6934,43 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121729</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1548.780040143415</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3802.377467740361</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>3971.313650668268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014294</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>2427.383125639849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>2838.273394484362</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>3452.170464241251</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>3452.170464241251</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>3796.691119878868</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>4045.444533962831</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765193</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765193</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>496.6650364395587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X40" t="n">
-        <v>496.6650364395587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.8724572960286</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1016.756764650637</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1785.124911043099</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.9573788353335</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C43" t="n">
-        <v>394.9573788353335</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D43" t="n">
-        <v>394.9573788353335</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E43" t="n">
-        <v>394.9573788353335</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119729</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119729</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913842</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>843.739508876881</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788637</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353335</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1204.259384505796</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.780040143414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609671</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609671</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>986.0022165609671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,10 +8783,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>259.0301978983862</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>289.0870542489701</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>332.5263293315845</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>51.91301957176819</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,22 +10910,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>225.2198464918254</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.55356902070463</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>92.89104652671875</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>9.476411694110425</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.000397916247</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>111.8072440037348</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2484934794773324</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>120.8909234895551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>86.08458114520361</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>90.96703739368833</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>81.43919432949326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.948931789976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.15869376457216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.5786410227643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>3.118140440917728</v>
       </c>
       <c r="F43" t="n">
-        <v>127.5709774492836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>136.1011942169954</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409907</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="K2" t="n">
-        <v>684300.8545409908</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758874</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905759204</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905759088</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758025</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26481,31 +26481,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732503</v>
+        <v>-93474.54782732527</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872194</v>
+        <v>496493.3313872196</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872195</v>
+        <v>496493.3313872193</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480143</v>
+        <v>65391.10716507999</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419762</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016975</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091053</v>
+        <v>414127.9244493833</v>
       </c>
       <c r="K6" t="n">
-        <v>591525.7349016983</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.7349016976</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678609</v>
+        <v>455750.1284081389</v>
       </c>
       <c r="N6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="O6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="P6" t="n">
-        <v>591525.7349016977</v>
+        <v>590551.1436419763</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.57401269741505e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.57401269741505e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,19 +26749,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.57401269741505e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.57401269741505e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>13.60179276195842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>156.1990201018916</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.7390373333103</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>56.38049181305666</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>173.9683590569448</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.306820537611713</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80.1210740195401</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>342.601511794291</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>52.02592219651751</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.931867898919704e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.146346862790068e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>160.6967431133295</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31615,16 +31615,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>126.0445872665842</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>67.57414213714412</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>185.03172434013</v>
       </c>
       <c r="P15" t="n">
-        <v>224.2638100172042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>158.0642534345928</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32566,22 +32566,22 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>201.5176914958841</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33028,34 +33028,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.58809112686431</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
@@ -33262,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>351.5968252432523</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33499,31 +33499,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33657,7 +33657,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33742,25 +33742,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>327.3263154426292</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>113.5000972981085</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>392.9827086369145</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>449.6156170945658</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>318.8402169694292</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>436.2977991724151</v>
       </c>
       <c r="P15" t="n">
-        <v>90.28940260287399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>466.123612829911</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>390.3502189581778</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>146.9530203269518</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>525.0887213238657</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.6836047766919</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>583.8827907668373</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>193.9719495517104</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>650.8973452706108</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.82319852667493</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.7860628216935</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>83.08581256980706</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3649702.65062498</v>
+        <v>3654641.913474013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600906.9956708103</v>
+        <v>590172.728163776</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>138.3295234829028</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>195.7571515107713</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.72878559814586</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>322.6159522267454</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.63122914173739</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.2870337730222</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9453656527047</v>
+        <v>120.8576927221048</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385032</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>89.45534752043521</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>159.2465967971092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709558</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>166.2687365728266</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.1854691670918</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385012</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>58.40168825977486</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>256.3432811758636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.2797837049395</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>89.35789353273664</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,10 +3246,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120382</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>67.54481623479323</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.5386780278486</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>214.5386780278486</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>214.5386780278486</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>214.5386780278486</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>207.5931772786451</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>193.669773217236</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>193.669773217236</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.1385180919704</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>530.3944877309076</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>530.3944877309076</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="X4" t="n">
-        <v>530.3944877309076</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.3944877309076</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.1150787952338</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>554.1525618548221</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>554.1525618548221</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>554.1525618548221</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>547.2070611056187</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>533.2836570442096</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4609,10 +4609,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.5111271432434</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>587.0073641070476</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>176.02145931744</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>648.0342195052076</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1261.931289262096</v>
       </c>
       <c r="M12" t="n">
-        <v>1567.123890985307</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N12" t="n">
-        <v>2371.535469249458</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>506.930219729578</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>337.9940368016711</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>337.9940368016711</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5199,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909235</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1164.055751909235</v>
       </c>
       <c r="V13" t="n">
-        <v>825.1470682810581</v>
+        <v>909.3712637033478</v>
       </c>
       <c r="W13" t="n">
-        <v>825.1470682810581</v>
+        <v>909.3712637033478</v>
       </c>
       <c r="X13" t="n">
-        <v>597.1575173830407</v>
+        <v>909.3712637033478</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.1575173830407</v>
+        <v>688.5786845598177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>648.0342195052076</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>1261.931289262096</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.227105931296</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N15" t="n">
-        <v>2191.638684195447</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>615.7499579788634</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1433.809122337732</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5983,58 +5983,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,7 +6308,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.198248099061</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V28" t="n">
-        <v>761.5137598931742</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,22 +6530,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,7 +6782,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>337.8955984302584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>187.4775899782016</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.881268530309</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.095853319815</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>822.9672145333731</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>568.2827263274862</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W34" t="n">
-        <v>278.8655562905255</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>675.0071030383447</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,10 +7016,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
         <v>1288.32563221405</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,19 +7113,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011507</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
         <v>1122.004430061687</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705745</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,22 +7478,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
         <v>1122.004430061687</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626376</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L45" t="n">
         <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1430.689183452051</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1141.560544665609</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0870542489701</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>56.97861512613396</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>92.89104652671875</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>50.63978772762155</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>52.31591677926821</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2484934794773324</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401791</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>29.89407122271371</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>90.96703739368833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>14.4554881988891</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>21.06135193153533</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.90698584635106</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694993</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>3.118140440917728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>154.002744823596</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409903</v>
@@ -26331,7 +26331,7 @@
         <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409904</v>
@@ -26340,22 +26340,22 @@
         <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758874</v>
+        <v>787.7936905758118</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905757973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905757817</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905759235</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758025</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732527</v>
+        <v>-93474.54782732515</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872196</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>65391.10716507999</v>
+        <v>66268.23929882931</v>
       </c>
       <c r="F6" t="n">
-        <v>590551.1436419762</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="G6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.275775726</v>
       </c>
       <c r="H6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="I6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="J6" t="n">
-        <v>414127.9244493833</v>
+        <v>415005.0565831329</v>
       </c>
       <c r="K6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757256</v>
       </c>
       <c r="L6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="M6" t="n">
-        <v>455750.1284081389</v>
+        <v>456627.2605418883</v>
       </c>
       <c r="N6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="O6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="P6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.275775726</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.57401269741505e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57401269741505e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.57401269741505e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.57401269741505e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>13.60179276195842</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.52765547913293</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>56.38049181305666</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.7942127384451</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.306820537611713</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>271.0998715367317</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>173.2359645635688</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.4429748595356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8388043680903</v>
+        <v>292.9264772986902</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.931867898919704e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.146346862790068e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31129,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,13 +31144,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>261.7559250855776</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>126.0445872665842</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>261.7559250855776</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>185.03172434013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>224.6051223555648</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
         <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318326</v>
+        <v>48.48571443651659</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>323.920986939094</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>388.3797231237972</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>449.6156170945658</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>388.3797231237972</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>436.2977991724151</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>146.9530203269518</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>572.6057846157851</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700522</v>
+        <v>175.1095124747362</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
